--- a/docs/Результаты.xlsx
+++ b/docs/Результаты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Plate_fixed_in_points_Bubnov\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2346322C-7CC2-4B75-A608-C111B428DC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF05BE9D-C99A-4BF1-A3E4-43B431A528F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33825" yWindow="105" windowWidth="16935" windowHeight="13410" xr2:uid="{A00D6134-50CA-4641-A08D-7241B2DD2D49}"/>
+    <workbookView xWindow="9330" yWindow="1455" windowWidth="16935" windowHeight="13410" xr2:uid="{A00D6134-50CA-4641-A08D-7241B2DD2D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -392,13 +392,14 @@
   <dimension ref="C4:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D14" sqref="D14:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -449,6 +450,12 @@
       <c r="C8">
         <v>3</v>
       </c>
+      <c r="D8">
+        <v>108.3</v>
+      </c>
+      <c r="E8">
+        <v>4186</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Результаты.xlsx
+++ b/docs/Результаты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Plate_fixed_in_points_Bubnov\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF05BE9D-C99A-4BF1-A3E4-43B431A528F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5846B9BA-1766-4991-AB5F-4CF4D0F847F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="1455" windowWidth="16935" windowHeight="13410" xr2:uid="{A00D6134-50CA-4641-A08D-7241B2DD2D49}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A00D6134-50CA-4641-A08D-7241B2DD2D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Номер приближения</t>
   </si>
@@ -34,6 +34,36 @@
   </si>
   <si>
     <t>Время исполнения, с</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>cos(2kπ x/a)</t>
+  </si>
+  <si>
+    <t>a=</t>
+  </si>
+  <si>
+    <t>b=</t>
+  </si>
+  <si>
+    <t>полная</t>
+  </si>
+  <si>
+    <t>только косинус</t>
+  </si>
+  <si>
+    <t>Произведение</t>
+  </si>
+  <si>
+    <t>при k=</t>
+  </si>
+  <si>
+    <t>омега</t>
   </si>
 </sst>
 </file>
@@ -70,10 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -90,6 +123,2700 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$25:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$25:$E$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DE2-4688-AF00-70C7FFB5A384}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$25:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$25:$F$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99211470131447788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96858316112863108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92977648588825146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87630668004386358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80901699437494745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72896862742141155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63742398974868975</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53582679497899655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42577929156507266</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30901699437494745</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18738131458572452</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2790519529313527E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.2790519529313402E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.1873813145857246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.30901699437494734</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.42577929156507272</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.53582679497899643</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.63742398974868975</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.72896862742141133</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.80901699437494734</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.87630668004386358</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.92977648588825146</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.96858316112863097</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.99211470131447776</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.99211470131447788</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.96858316112863119</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.92977648588825146</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.87630668004386369</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.80901699437494756</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.72896862742141155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.63742398974868952</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.5358267949789971</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.42577929156507294</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.30901699437494756</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.18738131458572463</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6.2790519529313207E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.2790519529312833E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.18738131458572427</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30901699437494723</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42577929156507183</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.53582679497899677</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.6374239897486893</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.72896862742141189</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.80901699437494734</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.87630668004386314</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.92977648588825146</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96858316112863097</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99211470131447788</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0DE2-4688-AF00-70C7FFB5A384}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$25:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$G$25:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96858316112863108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87630668004386358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72896862742141155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53582679497899655</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30901699437494745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2790519529313527E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1873813145857246</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.42577929156507272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.63742398974868975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.80901699437494734</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.92977648588825146</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.99211470131447776</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.99211470131447788</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.92977648588825146</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.80901699437494756</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.63742398974868952</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.42577929156507294</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.18738131458572463</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2790519529312833E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.30901699437494723</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.53582679497899677</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72896862742141189</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.87630668004386314</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.96858316112863097</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.96858316112863108</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.87630668004386381</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72896862742141155</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.53582679497899721</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.30901699437494773</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.2790519529313318E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.18738131458572502</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.42577929156507172</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.63742398974868919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.80901699437494723</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.92977648588825146</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.99211470131447788</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.99211470131447799</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.92977648588825168</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.80901699437494767</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.63742398974869108</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.42577929156507238</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.18738131458572574</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.2790519529314359E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.30901699437494701</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.53582679497899499</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.72896862742141166</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.87630668004386303</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9685831611286313</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0DE2-4688-AF00-70C7FFB5A384}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$I$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>омега</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$25:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$I$25:$I$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.003942649342761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0157084194356845</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0351117570558743</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0618466599780683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0954915028125263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1355156862892941</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1812880051256551</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2320866025105017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2871103542174638</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3454915028125263</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4063093427071378</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4686047402353433</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5313952597646567</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5936906572928624</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6545084971874737</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7128896457825364</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7679133974894983</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8187119948743451</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8644843137107057</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9045084971874737</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9381533400219317</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9648882429441259</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9842915805643155</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9960573506572388</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9960573506572388</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9842915805643155</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9648882429441259</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.938153340021932</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9045084971874737</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8644843137107057</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8187119948743447</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7679133974894985</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7128896457825364</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6545084971874737</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5936906572928624</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5313952597646565</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4686047402353435</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4063093427071378</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3454915028125265</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.287110354217464</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2320866025105017</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1812880051256553</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1355156862892941</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0954915028125263</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0618466599780685</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0351117570558743</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0157084194356845</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.003942649342761</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0DE2-4688-AF00-70C7FFB5A384}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$J$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Произведение</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$25:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$J$25:$J$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97240194489226428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89007207292828472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75456399676878627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56896589257520069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33852549156242118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1299619875789769E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.22135129930479344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.52459696076373874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.82043501723214507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.088525491562421</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.3075533587340593</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.4570243532076137</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.5193197507358196</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.4817760989306952</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.3385254915624214</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0918369520139239</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.75274091393147979</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.34079264445238044</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11707193871214949</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.58852549156242073</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0385144923617895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4323418854954491</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.738847967203305</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9333475384936285</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9333475384936287</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7388479672033064</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4323418854954484</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0385144923617904</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.58852549156242173</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.11707193871215041</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.34079264445238105</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.75274091393147768</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.0918369520139233</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.3385254915624207</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4817760989306952</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.5193197507358194</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.4570243532076144</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.3075533587340595</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.0885254915624216</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.82043501723214696</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.52459696076373841</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.22135129930479483</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.1299619875790726E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.33852549156242068</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.56896589257519914</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.75456399676878638</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.89007207292828416</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9724019448922645</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0DE2-4688-AF00-70C7FFB5A384}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="413841232"/>
+        <c:axId val="413841712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="413841232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413841712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="413841712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413841232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552684</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77FB3187-D9D9-702A-94A0-DF83C47CEC9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="514350"/>
+          <a:ext cx="1676634" cy="1448002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3675A55-C58C-124D-8C82-EF13FE22DACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,10 +3116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F28A70A-55C4-4BDD-8869-B9E67984A2E7}">
-  <dimension ref="C4:E8"/>
+  <dimension ref="C2:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:F30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +3129,17 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="4" spans="3:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +3150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>0</v>
       </c>
@@ -423,41 +3160,1650 @@
       <c r="E5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3.97</v>
+        <v>2.1949999999999998</v>
       </c>
       <c r="E6">
         <v>194</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1.87</v>
+      </c>
+      <c r="H6">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>5.61</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="E7">
         <v>1176</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1.85</v>
+      </c>
+      <c r="H7">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>3</v>
-      </c>
-      <c r="D8">
-        <v>108.3</v>
       </c>
       <c r="E8">
         <v>4186</v>
       </c>
     </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>0.00038100406+0.00067779155 +0.000513482687+0.00129389198+0.00000528426886+0.000065006888+0.00000685906948 +0.0000796075955+0.0000157854073+0.0000183433606+0.000105377597 +0.000145374117+0.000000156085352+0.0000029907514 +0.000001209374 +0.0000187531754</f>
+        <v>3.3309179668920006E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f>F14*1000</f>
+        <v>3.3309179668920006</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>2.5</v>
+      </c>
+      <c r="I19">
+        <f>(SIN(0.628318530717959*G19) + SIN(0.523598775598299*G20))^2*SIN(0.628318530717959*G19)*SIN(0.523598775598299*G20)</f>
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <f>(SIN(0.628318530717959*G19) + SIN(0.523598775598299*G20))^2*SIN(0.628318530717959*G19)</f>
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <f>(SIN(0.628318530717959*G19) + SIN(0.523598775598299*G20))^2*SIN(0.523598775598299*G20)</f>
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <f>(SIN(0.628318530717959*G19) + SIN(0.523598775598299*G20))^2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <f>(SIN(0.628318530717959*G19) + SIN(0.523598775598299*G20))^2*SIN(0.628318530717959*G19)*SIN(1.5707963267949*G20)</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <f>SIN(0.628318530717959*2.5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="K23">
+        <f>(SIN(0.628318530717959*G19) + SIN(0.523598775598299*G20))^2*SIN(1.88495559215388*G19)*SIN(0.523598775598299*G20)</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <f>(SIN(0.628318530717959*G19) + SIN(0.523598775598299*G20))^2*COS(1.25663706143592*G19)</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f>$D$21/2</f>
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>COS(2*$E$24*PI()*D25 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f>COS(2*$F$24*PI()*D25 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f>COS(2*$G$24*PI()*D25 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f>((SIN(PI() * D25 / $D$20) )^2+ (SIN(PI()*C25 / $D$21))^2)</f>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f>G25*I25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" ref="C26:C75" si="0">$D$21/2</f>
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:F35" si="1">COS(2*$E$24*PI()*D26 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:F75" si="2">COS(2*$F$24*PI()*D26 /$D$20)</f>
+        <v>0.99211470131447788</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G75" si="3">COS(2*$G$24*PI()*D26 /$D$20)</f>
+        <v>0.96858316112863108</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:I75" si="4">((SIN(PI() * D26 / $D$20) )^2+ (SIN(PI()*C26 / $D$21))^2)</f>
+        <v>1.003942649342761</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:J75" si="5">G26*I26</f>
+        <v>0.97240194489226428</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0.2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>0.96858316112863108</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>0.87630668004386358</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>1.0157084194356845</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>0.89007207292828472</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0.3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0.92977648588825146</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0.72896862742141155</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>1.0351117570558743</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>0.75456399676878627</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>0.4</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0.87630668004386358</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0.53582679497899655</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>1.0618466599780683</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>0.56896589257520069</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0.5</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>0.80901699437494745</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0.30901699437494745</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>1.0954915028125263</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>0.33852549156242118</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0.6</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>0.72896862742141155</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>6.2790519529313527E-2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>1.1355156862892941</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>7.1299619875789769E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0.7</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>0.63742398974868975</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>-0.1873813145857246</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>1.1812880051256551</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>-0.22135129930479344</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>0.8</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>0.53582679497899655</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>-0.42577929156507272</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>1.2320866025105017</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>-0.52459696076373874</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0.9</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0.42577929156507266</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>-0.63742398974868975</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>1.2871103542174638</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>-0.82043501723214507</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0.30901699437494745</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>-0.80901699437494734</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>1.3454915028125263</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>-1.088525491562421</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36" si="6">COS(2*$E$24*PI()*D36 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.18738131458572452</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>-0.92977648588825146</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>1.4063093427071378</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>-1.3075533587340593</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>1.2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="7">COS(2*$E$24*PI()*D37 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>6.2790519529313527E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>-0.99211470131447776</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>1.4686047402353433</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>-1.4570243532076137</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>1.3</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">COS(2*$E$24*PI()*D38 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>-6.2790519529313402E-2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>-0.99211470131447788</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>1.5313952597646567</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>-1.5193197507358196</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1.4</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="9">COS(2*$E$24*PI()*D39 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>-0.1873813145857246</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>-0.92977648588825146</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>1.5936906572928624</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>-1.4817760989306952</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1.5</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="10">COS(2*$E$24*PI()*D40 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>-0.30901699437494734</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>-0.80901699437494756</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>1.6545084971874737</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>-1.3385254915624214</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>1.6</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="11">COS(2*$E$24*PI()*D41 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>-0.42577929156507272</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>-0.63742398974868952</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>1.7128896457825364</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>-1.0918369520139239</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1.7</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="12">COS(2*$E$24*PI()*D42 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>-0.53582679497899643</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>-0.42577929156507294</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>1.7679133974894983</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>-0.75274091393147979</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1.8</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="13">COS(2*$E$24*PI()*D43 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>-0.63742398974868975</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>-0.18738131458572463</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>1.8187119948743451</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>-0.34079264445238044</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>1.9</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44" si="14">COS(2*$E$24*PI()*D44 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>-0.72896862742141133</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>6.2790519529312833E-2</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>1.8644843137107057</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>0.11707193871214949</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="15">COS(2*$E$24*PI()*D45 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>-0.80901699437494734</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>0.30901699437494723</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>1.9045084971874737</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>0.58852549156242073</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>2.1</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="16">COS(2*$E$24*PI()*D46 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>-0.87630668004386358</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>0.53582679497899677</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>1.9381533400219317</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>1.0385144923617895</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47" si="17">COS(2*$E$24*PI()*D47 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>-0.92977648588825146</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>0.72896862742141189</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>1.9648882429441259</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>1.4323418854954491</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="18">COS(2*$E$24*PI()*D48 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>-0.96858316112863097</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>0.87630668004386314</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="4"/>
+        <v>1.9842915805643155</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>1.738847967203305</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>2.4</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49" si="19">COS(2*$E$24*PI()*D49 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>-0.99211470131447776</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>0.96858316112863097</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="4"/>
+        <v>1.9960573506572388</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>1.9333475384936285</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>2.5</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50" si="20">COS(2*$E$24*PI()*D50 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>2.6</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51" si="21">COS(2*$E$24*PI()*D51 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>-0.99211470131447788</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>0.96858316112863108</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>1.9960573506572388</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>1.9333475384936287</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>2.7</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52" si="22">COS(2*$E$24*PI()*D52 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>-0.96858316112863119</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>0.87630668004386381</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>1.9842915805643155</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>1.7388479672033064</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>2.8</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53" si="23">COS(2*$E$24*PI()*D53 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>-0.92977648588825146</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>0.72896862742141155</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="4"/>
+        <v>1.9648882429441259</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="5"/>
+        <v>1.4323418854954484</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>2.9</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54" si="24">COS(2*$E$24*PI()*D54 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>-0.87630668004386369</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="3"/>
+        <v>0.53582679497899721</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="4"/>
+        <v>1.938153340021932</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="5"/>
+        <v>1.0385144923617904</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55" si="25">COS(2*$E$24*PI()*D55 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>-0.80901699437494756</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>0.30901699437494773</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="4"/>
+        <v>1.9045084971874737</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="5"/>
+        <v>0.58852549156242173</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>3.1</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56" si="26">COS(2*$E$24*PI()*D56 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>-0.72896862742141155</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>6.2790519529313318E-2</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="4"/>
+        <v>1.8644843137107057</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="5"/>
+        <v>0.11707193871215041</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>3.2</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57" si="27">COS(2*$E$24*PI()*D57 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>-0.63742398974868952</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="3"/>
+        <v>-0.18738131458572502</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="4"/>
+        <v>1.8187119948743447</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="5"/>
+        <v>-0.34079264445238105</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>3.3</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ref="E58" si="28">COS(2*$E$24*PI()*D58 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>-0.5358267949789971</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="3"/>
+        <v>-0.42577929156507172</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>1.7679133974894985</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="5"/>
+        <v>-0.75274091393147768</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>3.4</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ref="E59" si="29">COS(2*$E$24*PI()*D59 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>-0.42577929156507294</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="3"/>
+        <v>-0.63742398974868919</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="4"/>
+        <v>1.7128896457825364</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="5"/>
+        <v>-1.0918369520139233</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>3.5</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60" si="30">COS(2*$E$24*PI()*D60 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>-0.30901699437494756</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="3"/>
+        <v>-0.80901699437494723</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="4"/>
+        <v>1.6545084971874737</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="5"/>
+        <v>-1.3385254915624207</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>3.6</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ref="E61" si="31">COS(2*$E$24*PI()*D61 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>-0.18738131458572463</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="3"/>
+        <v>-0.92977648588825146</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>1.5936906572928624</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="5"/>
+        <v>-1.4817760989306952</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>3.7</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62" si="32">COS(2*$E$24*PI()*D62 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>-6.2790519529313207E-2</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="3"/>
+        <v>-0.99211470131447788</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>1.5313952597646565</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="5"/>
+        <v>-1.5193197507358194</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>3.8</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ref="E63" si="33">COS(2*$E$24*PI()*D63 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>6.2790519529312833E-2</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="3"/>
+        <v>-0.99211470131447799</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>1.4686047402353435</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="5"/>
+        <v>-1.4570243532076144</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>3.9</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ref="E64" si="34">COS(2*$E$24*PI()*D64 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>0.18738131458572427</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="3"/>
+        <v>-0.92977648588825168</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>1.4063093427071378</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="5"/>
+        <v>-1.3075533587340595</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ref="E65" si="35">COS(2*$E$24*PI()*D65 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>0.30901699437494723</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="3"/>
+        <v>-0.80901699437494767</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>1.3454915028125265</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="5"/>
+        <v>-1.0885254915624216</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66" si="36">COS(2*$E$24*PI()*D66 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>0.42577929156507183</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="3"/>
+        <v>-0.63742398974869108</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>1.287110354217464</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="5"/>
+        <v>-0.82043501723214696</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>4.2</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67" si="37">COS(2*$E$24*PI()*D67 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="2"/>
+        <v>0.53582679497899677</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="3"/>
+        <v>-0.42577929156507238</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="4"/>
+        <v>1.2320866025105017</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="5"/>
+        <v>-0.52459696076373841</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>4.3</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68" si="38">COS(2*$E$24*PI()*D68 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>0.6374239897486893</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>-0.18738131458572574</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="4"/>
+        <v>1.1812880051256553</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="5"/>
+        <v>-0.22135129930479483</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69" si="39">COS(2*$E$24*PI()*D69 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>0.72896862742141189</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>6.2790519529314359E-2</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="4"/>
+        <v>1.1355156862892941</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="5"/>
+        <v>7.1299619875790726E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>4.5</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ref="E70" si="40">COS(2*$E$24*PI()*D70 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>0.80901699437494734</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>0.30901699437494701</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="4"/>
+        <v>1.0954915028125263</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="5"/>
+        <v>0.33852549156242068</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71" si="41">COS(2*$E$24*PI()*D71 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>0.87630668004386314</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>0.53582679497899499</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="4"/>
+        <v>1.0618466599780685</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="5"/>
+        <v>0.56896589257519914</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>4.7</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ref="E72" si="42">COS(2*$E$24*PI()*D72 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>0.92977648588825146</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>0.72896862742141166</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="4"/>
+        <v>1.0351117570558743</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="5"/>
+        <v>0.75456399676878638</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>4.8</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ref="E73" si="43">COS(2*$E$24*PI()*D73 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>0.96858316112863097</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>0.87630668004386303</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="4"/>
+        <v>1.0157084194356845</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="5"/>
+        <v>0.89007207292828416</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ref="E74" si="44">COS(2*$E$24*PI()*D74 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>0.99211470131447788</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>0.9685831611286313</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="4"/>
+        <v>1.003942649342761</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="5"/>
+        <v>0.9724019448922645</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ref="E75" si="45">COS(2*$E$24*PI()*D75 /$D$20)</f>
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E23:G23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Результаты.xlsx
+++ b/docs/Результаты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Plate_fixed_in_points_Bubnov\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5846B9BA-1766-4991-AB5F-4CF4D0F847F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64177167-A2D0-4AEB-9011-79C04D69ACFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A00D6134-50CA-4641-A08D-7241B2DD2D49}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Номер приближения</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>омега</t>
+  </si>
+  <si>
+    <t>(5-x^2)*x^2</t>
   </si>
 </sst>
 </file>
@@ -2782,16 +2785,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3116,10 +3119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F28A70A-55C4-4BDD-8869-B9E67984A2E7}">
-  <dimension ref="C2:L75"/>
+  <dimension ref="C2:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3221,7 +3224,7 @@
         <v>3.3309179668920006</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>3</v>
       </c>
@@ -3245,7 +3248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>6</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>7</v>
       </c>
@@ -3271,7 +3274,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>5</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -3317,8 +3320,11 @@
         <f>(SIN(0.628318530717959*G19) + SIN(0.523598775598299*G20))^2*COS(1.25663706143592*G19)</f>
         <v>-4</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>$D$21/2</f>
         <v>3</v>
@@ -3346,8 +3352,12 @@
         <f>G25*I25</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <f>($D$20-D25)^2*D25^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" ref="C26:C75" si="0">$D$21/2</f>
         <v>3</v>
@@ -3375,8 +3385,12 @@
         <f t="shared" ref="J26:J75" si="5">G26*I26</f>
         <v>0.97240194489226428</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <f t="shared" ref="M26:M75" si="6">($D$20-D26)^2*D26^2</f>
+        <v>0.24010000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3404,8 +3418,12 @@
         <f t="shared" si="5"/>
         <v>0.89007207292828472</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>0.9216000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3433,8 +3451,12 @@
         <f t="shared" si="5"/>
         <v>0.75456399676878627</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>1.9881000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3462,8 +3484,12 @@
         <f t="shared" si="5"/>
         <v>0.56896589257520069</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>3.3856000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3491,8 +3517,12 @@
         <f t="shared" si="5"/>
         <v>0.33852549156242118</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <f t="shared" si="6"/>
+        <v>5.0625</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3520,8 +3550,12 @@
         <f t="shared" si="5"/>
         <v>7.1299619875789769E-2</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>6.9696000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3549,8 +3583,12 @@
         <f t="shared" si="5"/>
         <v>-0.22135129930479344</v>
       </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <f t="shared" si="6"/>
+        <v>9.0600999999999985</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3578,8 +3616,12 @@
         <f t="shared" si="5"/>
         <v>-0.52459696076373874</v>
       </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>11.289600000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3607,8 +3649,12 @@
         <f t="shared" si="5"/>
         <v>-0.82043501723214507</v>
       </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>13.616099999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3636,8 +3682,12 @@
         <f t="shared" si="5"/>
         <v>-1.088525491562421</v>
       </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3646,7 +3696,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36" si="6">COS(2*$E$24*PI()*D36 /$D$20)</f>
+        <f t="shared" ref="E36" si="7">COS(2*$E$24*PI()*D36 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F36">
@@ -3665,8 +3715,12 @@
         <f t="shared" si="5"/>
         <v>-1.3075533587340593</v>
       </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f t="shared" si="6"/>
+        <v>18.404100000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3675,7 +3729,7 @@
         <v>1.2</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37" si="7">COS(2*$E$24*PI()*D37 /$D$20)</f>
+        <f t="shared" ref="E37" si="8">COS(2*$E$24*PI()*D37 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F37">
@@ -3694,8 +3748,12 @@
         <f t="shared" si="5"/>
         <v>-1.4570243532076137</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f t="shared" si="6"/>
+        <v>20.793599999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3704,7 +3762,7 @@
         <v>1.3</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38" si="8">COS(2*$E$24*PI()*D38 /$D$20)</f>
+        <f t="shared" ref="E38" si="9">COS(2*$E$24*PI()*D38 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F38">
@@ -3723,8 +3781,12 @@
         <f t="shared" si="5"/>
         <v>-1.5193197507358196</v>
       </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f t="shared" si="6"/>
+        <v>23.136100000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3733,7 +3795,7 @@
         <v>1.4</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39" si="9">COS(2*$E$24*PI()*D39 /$D$20)</f>
+        <f t="shared" ref="E39" si="10">COS(2*$E$24*PI()*D39 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F39">
@@ -3752,8 +3814,12 @@
         <f t="shared" si="5"/>
         <v>-1.4817760989306952</v>
       </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f t="shared" si="6"/>
+        <v>25.401599999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3762,7 +3828,7 @@
         <v>1.5</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="E40" si="10">COS(2*$E$24*PI()*D40 /$D$20)</f>
+        <f t="shared" ref="E40" si="11">COS(2*$E$24*PI()*D40 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F40">
@@ -3781,8 +3847,12 @@
         <f t="shared" si="5"/>
         <v>-1.3385254915624214</v>
       </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f t="shared" si="6"/>
+        <v>27.5625</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3791,7 +3861,7 @@
         <v>1.6</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41" si="11">COS(2*$E$24*PI()*D41 /$D$20)</f>
+        <f t="shared" ref="E41" si="12">COS(2*$E$24*PI()*D41 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F41">
@@ -3810,8 +3880,12 @@
         <f t="shared" si="5"/>
         <v>-1.0918369520139239</v>
       </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <f t="shared" si="6"/>
+        <v>29.593600000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3820,7 +3894,7 @@
         <v>1.7</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42" si="12">COS(2*$E$24*PI()*D42 /$D$20)</f>
+        <f t="shared" ref="E42" si="13">COS(2*$E$24*PI()*D42 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F42">
@@ -3839,8 +3913,12 @@
         <f t="shared" si="5"/>
         <v>-0.75274091393147979</v>
       </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <f t="shared" si="6"/>
+        <v>31.472099999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3849,7 +3927,7 @@
         <v>1.8</v>
       </c>
       <c r="E43">
-        <f t="shared" ref="E43" si="13">COS(2*$E$24*PI()*D43 /$D$20)</f>
+        <f t="shared" ref="E43" si="14">COS(2*$E$24*PI()*D43 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F43">
@@ -3868,8 +3946,12 @@
         <f t="shared" si="5"/>
         <v>-0.34079264445238044</v>
       </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <f t="shared" si="6"/>
+        <v>33.177600000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C44">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3878,7 +3960,7 @@
         <v>1.9</v>
       </c>
       <c r="E44">
-        <f t="shared" ref="E44" si="14">COS(2*$E$24*PI()*D44 /$D$20)</f>
+        <f t="shared" ref="E44" si="15">COS(2*$E$24*PI()*D44 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F44">
@@ -3897,8 +3979,12 @@
         <f t="shared" si="5"/>
         <v>0.11707193871214949</v>
       </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>34.692100000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C45">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3907,7 +3993,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E45" si="15">COS(2*$E$24*PI()*D45 /$D$20)</f>
+        <f t="shared" ref="E45" si="16">COS(2*$E$24*PI()*D45 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F45">
@@ -3926,8 +4012,12 @@
         <f t="shared" si="5"/>
         <v>0.58852549156242073</v>
       </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C46">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3936,7 +4026,7 @@
         <v>2.1</v>
       </c>
       <c r="E46">
-        <f t="shared" ref="E46" si="16">COS(2*$E$24*PI()*D46 /$D$20)</f>
+        <f t="shared" ref="E46" si="17">COS(2*$E$24*PI()*D46 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F46">
@@ -3955,8 +4045,12 @@
         <f t="shared" si="5"/>
         <v>1.0385144923617895</v>
       </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <f t="shared" si="6"/>
+        <v>37.088100000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C47">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3965,7 +4059,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47" si="17">COS(2*$E$24*PI()*D47 /$D$20)</f>
+        <f t="shared" ref="E47" si="18">COS(2*$E$24*PI()*D47 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F47">
@@ -3984,8 +4078,12 @@
         <f t="shared" si="5"/>
         <v>1.4323418854954491</v>
       </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <f t="shared" si="6"/>
+        <v>37.945599999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C48">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3994,7 +4092,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48" si="18">COS(2*$E$24*PI()*D48 /$D$20)</f>
+        <f t="shared" ref="E48" si="19">COS(2*$E$24*PI()*D48 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F48">
@@ -4013,8 +4111,12 @@
         <f t="shared" si="5"/>
         <v>1.738847967203305</v>
       </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <f t="shared" si="6"/>
+        <v>38.564099999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4023,7 +4125,7 @@
         <v>2.4</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49" si="19">COS(2*$E$24*PI()*D49 /$D$20)</f>
+        <f t="shared" ref="E49" si="20">COS(2*$E$24*PI()*D49 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F49">
@@ -4042,8 +4144,12 @@
         <f t="shared" si="5"/>
         <v>1.9333475384936285</v>
       </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <f t="shared" si="6"/>
+        <v>38.937600000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4052,7 +4158,7 @@
         <v>2.5</v>
       </c>
       <c r="E50">
-        <f t="shared" ref="E50" si="20">COS(2*$E$24*PI()*D50 /$D$20)</f>
+        <f t="shared" ref="E50" si="21">COS(2*$E$24*PI()*D50 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F50">
@@ -4071,8 +4177,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <f t="shared" si="6"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C51">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4081,7 +4191,7 @@
         <v>2.6</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51" si="21">COS(2*$E$24*PI()*D51 /$D$20)</f>
+        <f t="shared" ref="E51" si="22">COS(2*$E$24*PI()*D51 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F51">
@@ -4100,8 +4210,12 @@
         <f t="shared" si="5"/>
         <v>1.9333475384936287</v>
       </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <f t="shared" si="6"/>
+        <v>38.937600000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C52">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4110,7 +4224,7 @@
         <v>2.7</v>
       </c>
       <c r="E52">
-        <f t="shared" ref="E52" si="22">COS(2*$E$24*PI()*D52 /$D$20)</f>
+        <f t="shared" ref="E52" si="23">COS(2*$E$24*PI()*D52 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F52">
@@ -4129,8 +4243,12 @@
         <f t="shared" si="5"/>
         <v>1.7388479672033064</v>
       </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <f t="shared" si="6"/>
+        <v>38.564099999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C53">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4139,7 +4257,7 @@
         <v>2.8</v>
       </c>
       <c r="E53">
-        <f t="shared" ref="E53" si="23">COS(2*$E$24*PI()*D53 /$D$20)</f>
+        <f t="shared" ref="E53" si="24">COS(2*$E$24*PI()*D53 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F53">
@@ -4158,8 +4276,12 @@
         <f t="shared" si="5"/>
         <v>1.4323418854954484</v>
       </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <f t="shared" si="6"/>
+        <v>37.945599999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C54">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4168,7 +4290,7 @@
         <v>2.9</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54" si="24">COS(2*$E$24*PI()*D54 /$D$20)</f>
+        <f t="shared" ref="E54" si="25">COS(2*$E$24*PI()*D54 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F54">
@@ -4187,8 +4309,12 @@
         <f t="shared" si="5"/>
         <v>1.0385144923617904</v>
       </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <f t="shared" si="6"/>
+        <v>37.088100000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C55">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4197,7 +4323,7 @@
         <v>3</v>
       </c>
       <c r="E55">
-        <f t="shared" ref="E55" si="25">COS(2*$E$24*PI()*D55 /$D$20)</f>
+        <f t="shared" ref="E55" si="26">COS(2*$E$24*PI()*D55 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F55">
@@ -4216,8 +4342,12 @@
         <f t="shared" si="5"/>
         <v>0.58852549156242173</v>
       </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C56">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4226,7 +4356,7 @@
         <v>3.1</v>
       </c>
       <c r="E56">
-        <f t="shared" ref="E56" si="26">COS(2*$E$24*PI()*D56 /$D$20)</f>
+        <f t="shared" ref="E56" si="27">COS(2*$E$24*PI()*D56 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F56">
@@ -4245,8 +4375,12 @@
         <f t="shared" si="5"/>
         <v>0.11707193871215041</v>
       </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <f t="shared" si="6"/>
+        <v>34.692100000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C57">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4255,7 +4389,7 @@
         <v>3.2</v>
       </c>
       <c r="E57">
-        <f t="shared" ref="E57" si="27">COS(2*$E$24*PI()*D57 /$D$20)</f>
+        <f t="shared" ref="E57" si="28">COS(2*$E$24*PI()*D57 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F57">
@@ -4274,8 +4408,12 @@
         <f t="shared" si="5"/>
         <v>-0.34079264445238105</v>
       </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <f t="shared" si="6"/>
+        <v>33.177599999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C58">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4284,7 +4422,7 @@
         <v>3.3</v>
       </c>
       <c r="E58">
-        <f t="shared" ref="E58" si="28">COS(2*$E$24*PI()*D58 /$D$20)</f>
+        <f t="shared" ref="E58" si="29">COS(2*$E$24*PI()*D58 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F58">
@@ -4303,8 +4441,12 @@
         <f t="shared" si="5"/>
         <v>-0.75274091393147768</v>
       </c>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <f t="shared" si="6"/>
+        <v>31.472100000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C59">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4313,7 +4455,7 @@
         <v>3.4</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59" si="29">COS(2*$E$24*PI()*D59 /$D$20)</f>
+        <f t="shared" ref="E59" si="30">COS(2*$E$24*PI()*D59 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F59">
@@ -4332,8 +4474,12 @@
         <f t="shared" si="5"/>
         <v>-1.0918369520139233</v>
       </c>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <f t="shared" si="6"/>
+        <v>29.593600000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C60">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4342,7 +4488,7 @@
         <v>3.5</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60" si="30">COS(2*$E$24*PI()*D60 /$D$20)</f>
+        <f t="shared" ref="E60" si="31">COS(2*$E$24*PI()*D60 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F60">
@@ -4361,8 +4507,12 @@
         <f t="shared" si="5"/>
         <v>-1.3385254915624207</v>
       </c>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <f t="shared" si="6"/>
+        <v>27.5625</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C61">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4371,7 +4521,7 @@
         <v>3.6</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61" si="31">COS(2*$E$24*PI()*D61 /$D$20)</f>
+        <f t="shared" ref="E61" si="32">COS(2*$E$24*PI()*D61 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F61">
@@ -4390,8 +4540,12 @@
         <f t="shared" si="5"/>
         <v>-1.4817760989306952</v>
       </c>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <f t="shared" si="6"/>
+        <v>25.401599999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C62">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4400,7 +4554,7 @@
         <v>3.7</v>
       </c>
       <c r="E62">
-        <f t="shared" ref="E62" si="32">COS(2*$E$24*PI()*D62 /$D$20)</f>
+        <f t="shared" ref="E62" si="33">COS(2*$E$24*PI()*D62 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F62">
@@ -4419,8 +4573,12 @@
         <f t="shared" si="5"/>
         <v>-1.5193197507358194</v>
       </c>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <f t="shared" si="6"/>
+        <v>23.136099999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C63">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4429,7 +4587,7 @@
         <v>3.8</v>
       </c>
       <c r="E63">
-        <f t="shared" ref="E63" si="33">COS(2*$E$24*PI()*D63 /$D$20)</f>
+        <f t="shared" ref="E63" si="34">COS(2*$E$24*PI()*D63 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F63">
@@ -4448,8 +4606,12 @@
         <f t="shared" si="5"/>
         <v>-1.4570243532076144</v>
       </c>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <f t="shared" si="6"/>
+        <v>20.793600000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C64">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4458,7 +4620,7 @@
         <v>3.9</v>
       </c>
       <c r="E64">
-        <f t="shared" ref="E64" si="34">COS(2*$E$24*PI()*D64 /$D$20)</f>
+        <f t="shared" ref="E64" si="35">COS(2*$E$24*PI()*D64 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F64">
@@ -4477,8 +4639,12 @@
         <f t="shared" si="5"/>
         <v>-1.3075533587340595</v>
       </c>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <f t="shared" si="6"/>
+        <v>18.404100000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C65">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4487,7 +4653,7 @@
         <v>4</v>
       </c>
       <c r="E65">
-        <f t="shared" ref="E65" si="35">COS(2*$E$24*PI()*D65 /$D$20)</f>
+        <f t="shared" ref="E65" si="36">COS(2*$E$24*PI()*D65 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F65">
@@ -4506,8 +4672,12 @@
         <f t="shared" si="5"/>
         <v>-1.0885254915624216</v>
       </c>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C66">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4516,7 +4686,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66" si="36">COS(2*$E$24*PI()*D66 /$D$20)</f>
+        <f t="shared" ref="E66" si="37">COS(2*$E$24*PI()*D66 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F66">
@@ -4535,8 +4705,12 @@
         <f t="shared" si="5"/>
         <v>-0.82043501723214696</v>
       </c>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <f t="shared" si="6"/>
+        <v>13.616100000000008</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C67">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4545,7 +4719,7 @@
         <v>4.2</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67" si="37">COS(2*$E$24*PI()*D67 /$D$20)</f>
+        <f t="shared" ref="E67" si="38">COS(2*$E$24*PI()*D67 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F67">
@@ -4564,8 +4738,12 @@
         <f t="shared" si="5"/>
         <v>-0.52459696076373841</v>
       </c>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <f t="shared" si="6"/>
+        <v>11.289599999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C68">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4574,7 +4752,7 @@
         <v>4.3</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68" si="38">COS(2*$E$24*PI()*D68 /$D$20)</f>
+        <f t="shared" ref="E68" si="39">COS(2*$E$24*PI()*D68 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F68">
@@ -4593,8 +4771,12 @@
         <f t="shared" si="5"/>
         <v>-0.22135129930479483</v>
       </c>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <f t="shared" si="6"/>
+        <v>9.0601000000000038</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C69">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4603,7 +4785,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69" si="39">COS(2*$E$24*PI()*D69 /$D$20)</f>
+        <f t="shared" ref="E69" si="40">COS(2*$E$24*PI()*D69 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F69">
@@ -4622,8 +4804,12 @@
         <f t="shared" si="5"/>
         <v>7.1299619875790726E-2</v>
       </c>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <f t="shared" si="6"/>
+        <v>6.9695999999999936</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C70">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4632,7 +4818,7 @@
         <v>4.5</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70" si="40">COS(2*$E$24*PI()*D70 /$D$20)</f>
+        <f t="shared" ref="E70" si="41">COS(2*$E$24*PI()*D70 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F70">
@@ -4651,8 +4837,12 @@
         <f t="shared" si="5"/>
         <v>0.33852549156242068</v>
       </c>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <f t="shared" si="6"/>
+        <v>5.0625</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C71">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4661,7 +4851,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E71">
-        <f t="shared" ref="E71" si="41">COS(2*$E$24*PI()*D71 /$D$20)</f>
+        <f t="shared" ref="E71" si="42">COS(2*$E$24*PI()*D71 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F71">
@@ -4680,8 +4870,12 @@
         <f t="shared" si="5"/>
         <v>0.56896589257519914</v>
       </c>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <f t="shared" si="6"/>
+        <v>3.3856000000000055</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C72">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4690,7 +4884,7 @@
         <v>4.7</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72" si="42">COS(2*$E$24*PI()*D72 /$D$20)</f>
+        <f t="shared" ref="E72" si="43">COS(2*$E$24*PI()*D72 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4709,8 +4903,12 @@
         <f t="shared" si="5"/>
         <v>0.75456399676878638</v>
       </c>
-    </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <f t="shared" si="6"/>
+        <v>1.988099999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C73">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4719,7 +4917,7 @@
         <v>4.8</v>
       </c>
       <c r="E73">
-        <f t="shared" ref="E73" si="43">COS(2*$E$24*PI()*D73 /$D$20)</f>
+        <f t="shared" ref="E73" si="44">COS(2*$E$24*PI()*D73 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F73">
@@ -4738,8 +4936,12 @@
         <f t="shared" si="5"/>
         <v>0.89007207292828416</v>
       </c>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <f t="shared" si="6"/>
+        <v>0.92160000000000153</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C74">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4748,7 +4950,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="E74">
-        <f t="shared" ref="E74" si="44">COS(2*$E$24*PI()*D74 /$D$20)</f>
+        <f t="shared" ref="E74" si="45">COS(2*$E$24*PI()*D74 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F74">
@@ -4767,8 +4969,12 @@
         <f t="shared" si="5"/>
         <v>0.9724019448922645</v>
       </c>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <f t="shared" si="6"/>
+        <v>0.24009999999999834</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C75">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4777,7 +4983,7 @@
         <v>5</v>
       </c>
       <c r="E75">
-        <f t="shared" ref="E75" si="45">COS(2*$E$24*PI()*D75 /$D$20)</f>
+        <f t="shared" ref="E75" si="46">COS(2*$E$24*PI()*D75 /$D$20)</f>
         <v>1</v>
       </c>
       <c r="F75">
@@ -4795,6 +5001,10 @@
       <c r="J75">
         <f t="shared" si="5"/>
         <v>1</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
